--- a/medicine/Enfance/Barry_Louis_Polisar/Barry_Louis_Polisar.xlsx
+++ b/medicine/Enfance/Barry_Louis_Polisar/Barry_Louis_Polisar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barry Louis Polisar est un écrivain et auteur-compositeur-interprète américain. Il est l'auteur de livres et de chansons pour enfants.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Old Enough to Know Better
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Old Enough to Know Better
 A Little Different
 Juggling Babies
 Naughty Songs for Boys &amp; Girls
@@ -553,11 +572,7 @@
 Captured Live and in the Act
 Songs for Well Behaved Children
 Stanley Stole My Shoelace and Rubbed it in His Armpit and Other Songs My Parents Won't Let Me Sing
-Off-Color Songs for Kids
-Collaborations
-2009 : Music from the Motion PictureJuno
-2010 :We're Not Kidding! A Tribute to Barry Louis Polisar
-2012 : All About Bullies... Big And Small</t>
+Off-Color Songs for Kids</t>
         </is>
       </c>
     </row>
@@ -582,10 +597,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2009 : Music from the Motion PictureJuno
+2010 :We're Not Kidding! A Tribute to Barry Louis Polisar
+2012 : All About Bullies... Big And Small</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barry_Louis_Polisar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barry_Louis_Polisar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Insect Soup
 Peculiar Zoo
@@ -605,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Barry_Louis_Polisar</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Barry_Louis_Polisar</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
